--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cel</t>
+  </si>
+  <si>
+    <t>Cxcr4</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cel</t>
-  </si>
-  <si>
-    <t>Cxcr4</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3092543333333334</v>
+        <v>0.615753</v>
       </c>
       <c r="H2">
-        <v>0.927763</v>
+        <v>1.847259</v>
       </c>
       <c r="I2">
-        <v>0.1656999261482518</v>
+        <v>0.3935089709383138</v>
       </c>
       <c r="J2">
-        <v>0.1656999261482518</v>
+        <v>0.3935089709383138</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N2">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O2">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P2">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q2">
-        <v>4.732309491646777</v>
+        <v>27.341728316682</v>
       </c>
       <c r="R2">
-        <v>42.59078542482099</v>
+        <v>246.075554850138</v>
       </c>
       <c r="S2">
-        <v>0.002423804980778969</v>
+        <v>0.01793479290559008</v>
       </c>
       <c r="T2">
-        <v>0.002423804980778968</v>
+        <v>0.01793479290559008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3092543333333334</v>
+        <v>0.615753</v>
       </c>
       <c r="H3">
-        <v>0.927763</v>
+        <v>1.847259</v>
       </c>
       <c r="I3">
-        <v>0.1656999261482518</v>
+        <v>0.3935089709383138</v>
       </c>
       <c r="J3">
-        <v>0.1656999261482518</v>
+        <v>0.3935089709383138</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O3">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P3">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q3">
-        <v>0.07138363149166668</v>
+        <v>0.142131186225</v>
       </c>
       <c r="R3">
-        <v>0.6424526834250001</v>
+        <v>1.279180676025</v>
       </c>
       <c r="S3">
-        <v>3.656142986019784E-05</v>
+        <v>9.323087995194346E-05</v>
       </c>
       <c r="T3">
-        <v>3.656142986019783E-05</v>
+        <v>9.323087995194346E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3092543333333334</v>
+        <v>0.615753</v>
       </c>
       <c r="H4">
-        <v>0.927763</v>
+        <v>1.847259</v>
       </c>
       <c r="I4">
-        <v>0.1656999261482518</v>
+        <v>0.3935089709383138</v>
       </c>
       <c r="J4">
-        <v>0.1656999261482518</v>
+        <v>0.3935089709383138</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N4">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O4">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P4">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q4">
-        <v>76.97944330379667</v>
+        <v>143.224467786309</v>
       </c>
       <c r="R4">
-        <v>692.8149897341699</v>
+        <v>1289.020210076781</v>
       </c>
       <c r="S4">
-        <v>0.03942750541288166</v>
+        <v>0.09394801744092997</v>
       </c>
       <c r="T4">
-        <v>0.03942750541288165</v>
+        <v>0.09394801744092998</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3092543333333334</v>
+        <v>0.615753</v>
       </c>
       <c r="H5">
-        <v>0.927763</v>
+        <v>1.847259</v>
       </c>
       <c r="I5">
-        <v>0.1656999261482518</v>
+        <v>0.3935089709383138</v>
       </c>
       <c r="J5">
-        <v>0.1656999261482518</v>
+        <v>0.3935089709383138</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N5">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O5">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P5">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q5">
-        <v>10.61454101873022</v>
+        <v>5.319772181874</v>
       </c>
       <c r="R5">
-        <v>95.530869168572</v>
+        <v>47.877949636866</v>
       </c>
       <c r="S5">
-        <v>0.005436579631001298</v>
+        <v>0.003489501880852842</v>
       </c>
       <c r="T5">
-        <v>0.005436579631001297</v>
+        <v>0.003489501880852843</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3092543333333334</v>
+        <v>0.615753</v>
       </c>
       <c r="H6">
-        <v>0.927763</v>
+        <v>1.847259</v>
       </c>
       <c r="I6">
-        <v>0.1656999261482518</v>
+        <v>0.3935089709383138</v>
       </c>
       <c r="J6">
-        <v>0.1656999261482518</v>
+        <v>0.3935089709383138</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N6">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O6">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P6">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q6">
-        <v>145.6320509117292</v>
+        <v>328.496571279708</v>
       </c>
       <c r="R6">
-        <v>1310.688458205563</v>
+        <v>2956.469141517372</v>
       </c>
       <c r="S6">
-        <v>0.07459015328223434</v>
+        <v>0.2154771603265249</v>
       </c>
       <c r="T6">
-        <v>0.07459015328223433</v>
+        <v>0.2154771603265249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3092543333333334</v>
+        <v>0.615753</v>
       </c>
       <c r="H7">
-        <v>0.927763</v>
+        <v>1.847259</v>
       </c>
       <c r="I7">
-        <v>0.1656999261482518</v>
+        <v>0.3935089709383138</v>
       </c>
       <c r="J7">
-        <v>0.1656999261482518</v>
+        <v>0.3935089709383138</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N7">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O7">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P7">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q7">
-        <v>85.48777387355312</v>
+        <v>95.38275110847299</v>
       </c>
       <c r="R7">
-        <v>769.3899648619781</v>
+        <v>858.4447599762569</v>
       </c>
       <c r="S7">
-        <v>0.04378532141149533</v>
+        <v>0.06256626750446405</v>
       </c>
       <c r="T7">
-        <v>0.04378532141149533</v>
+        <v>0.06256626750446406</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.4005</v>
       </c>
       <c r="I8">
-        <v>0.2501314954041352</v>
+        <v>0.2983389518194842</v>
       </c>
       <c r="J8">
-        <v>0.2501314954041352</v>
+        <v>0.2983389518194842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N8">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O8">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P8">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q8">
-        <v>7.143634142611111</v>
+        <v>20.72914004344445</v>
       </c>
       <c r="R8">
-        <v>64.29270728349999</v>
+        <v>186.562260391</v>
       </c>
       <c r="S8">
-        <v>0.003658842695366107</v>
+        <v>0.01359726896135242</v>
       </c>
       <c r="T8">
-        <v>0.003658842695366107</v>
+        <v>0.01359726896135242</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.4005</v>
       </c>
       <c r="I9">
-        <v>0.2501314954041352</v>
+        <v>0.2983389518194842</v>
       </c>
       <c r="J9">
-        <v>0.2501314954041352</v>
+        <v>0.2983389518194842</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O9">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P9">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q9">
         <v>0.1077568041666667</v>
@@ -1013,10 +1013,10 @@
         <v>0.9698112375000001</v>
       </c>
       <c r="S9">
-        <v>5.519112372363101E-05</v>
+        <v>7.068302136987657E-05</v>
       </c>
       <c r="T9">
-        <v>5.5191123723631E-05</v>
+        <v>7.068302136987657E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>1.4005</v>
       </c>
       <c r="I10">
-        <v>0.2501314954041352</v>
+        <v>0.2983389518194842</v>
       </c>
       <c r="J10">
-        <v>0.2501314954041352</v>
+        <v>0.2983389518194842</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N10">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O10">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P10">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q10">
-        <v>116.2039339216667</v>
+        <v>108.5856759310556</v>
       </c>
       <c r="R10">
-        <v>1045.835405295</v>
+        <v>977.2710833795001</v>
       </c>
       <c r="S10">
-        <v>0.0595175937504953</v>
+        <v>0.07122671938586979</v>
       </c>
       <c r="T10">
-        <v>0.05951759375049528</v>
+        <v>0.07122671938586979</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>1.4005</v>
       </c>
       <c r="I11">
-        <v>0.2501314954041352</v>
+        <v>0.2983389518194842</v>
       </c>
       <c r="J11">
-        <v>0.2501314954041352</v>
+        <v>0.2983389518194842</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N11">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O11">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P11">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q11">
-        <v>16.02312734688889</v>
+        <v>4.033186976333333</v>
       </c>
       <c r="R11">
-        <v>144.208146122</v>
+        <v>36.298682787</v>
       </c>
       <c r="S11">
-        <v>0.008206761611766495</v>
+        <v>0.002645566963882383</v>
       </c>
       <c r="T11">
-        <v>0.008206761611766493</v>
+        <v>0.002645566963882383</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.4005</v>
       </c>
       <c r="I12">
-        <v>0.2501314954041352</v>
+        <v>0.2983389518194842</v>
       </c>
       <c r="J12">
-        <v>0.2501314954041352</v>
+        <v>0.2983389518194842</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N12">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O12">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P12">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q12">
-        <v>219.8381346333889</v>
+        <v>249.0497802837778</v>
       </c>
       <c r="R12">
-        <v>1978.5432117005</v>
+        <v>2241.448022554</v>
       </c>
       <c r="S12">
-        <v>0.1125971931104918</v>
+        <v>0.1633640778241157</v>
       </c>
       <c r="T12">
-        <v>0.1125971931104918</v>
+        <v>0.1633640778241157</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>1.4005</v>
       </c>
       <c r="I13">
-        <v>0.2501314954041352</v>
+        <v>0.2983389518194842</v>
       </c>
       <c r="J13">
-        <v>0.2501314954041352</v>
+        <v>0.2983389518194842</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N13">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O13">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P13">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q13">
-        <v>129.0476418114445</v>
+        <v>72.3144631735</v>
       </c>
       <c r="R13">
-        <v>1161.428776303</v>
+        <v>650.8301685615</v>
       </c>
       <c r="S13">
-        <v>0.06609591311229183</v>
+        <v>0.04743463566289401</v>
       </c>
       <c r="T13">
-        <v>0.06609591311229183</v>
+        <v>0.04743463566289401</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1089836666666667</v>
+        <v>0.05310400000000001</v>
       </c>
       <c r="H14">
-        <v>0.326951</v>
+        <v>0.159312</v>
       </c>
       <c r="I14">
-        <v>0.05839396112379679</v>
+        <v>0.03393714751322075</v>
       </c>
       <c r="J14">
-        <v>0.05839396112379679</v>
+        <v>0.03393714751322075</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N14">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O14">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P14">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q14">
-        <v>1.667703196401889</v>
+        <v>2.358015536309334</v>
       </c>
       <c r="R14">
-        <v>15.009328767617</v>
+        <v>21.222139826784</v>
       </c>
       <c r="S14">
-        <v>0.0008541679957819665</v>
+        <v>0.001546739102299876</v>
       </c>
       <c r="T14">
-        <v>0.0008541679957819664</v>
+        <v>0.001546739102299876</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1089836666666667</v>
+        <v>0.05310400000000001</v>
       </c>
       <c r="H15">
-        <v>0.326951</v>
+        <v>0.159312</v>
       </c>
       <c r="I15">
-        <v>0.05839396112379679</v>
+        <v>0.03393714751322075</v>
       </c>
       <c r="J15">
-        <v>0.05839396112379679</v>
+        <v>0.03393714751322075</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O15">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P15">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q15">
-        <v>0.02515615485833334</v>
+        <v>0.0122577308</v>
       </c>
       <c r="R15">
-        <v>0.226405393725</v>
+        <v>0.1103195772</v>
       </c>
       <c r="S15">
-        <v>1.288453630315236E-05</v>
+        <v>8.040452338791701E-06</v>
       </c>
       <c r="T15">
-        <v>1.288453630315236E-05</v>
+        <v>8.040452338791701E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1089836666666667</v>
+        <v>0.05310400000000001</v>
       </c>
       <c r="H16">
-        <v>0.326951</v>
+        <v>0.159312</v>
       </c>
       <c r="I16">
-        <v>0.05839396112379679</v>
+        <v>0.03393714751322075</v>
       </c>
       <c r="J16">
-        <v>0.05839396112379679</v>
+        <v>0.03393714751322075</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N16">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O16">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P16">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q16">
-        <v>27.12816308434333</v>
+        <v>12.35201799637867</v>
       </c>
       <c r="R16">
-        <v>244.15346775909</v>
+        <v>111.168161967408</v>
       </c>
       <c r="S16">
-        <v>0.01389456393739249</v>
+        <v>0.008102299977723446</v>
       </c>
       <c r="T16">
-        <v>0.01389456393739249</v>
+        <v>0.008102299977723446</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1089836666666667</v>
+        <v>0.05310400000000001</v>
       </c>
       <c r="H17">
-        <v>0.326951</v>
+        <v>0.159312</v>
       </c>
       <c r="I17">
-        <v>0.05839396112379679</v>
+        <v>0.03393714751322075</v>
       </c>
       <c r="J17">
-        <v>0.05839396112379679</v>
+        <v>0.03393714751322075</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N17">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O17">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P17">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q17">
-        <v>3.740647989427112</v>
+        <v>0.458789777632</v>
       </c>
       <c r="R17">
-        <v>33.665831904844</v>
+        <v>4.129107998688</v>
       </c>
       <c r="S17">
-        <v>0.001915893549252887</v>
+        <v>0.0003009429233488255</v>
       </c>
       <c r="T17">
-        <v>0.001915893549252886</v>
+        <v>0.0003009429233488255</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1089836666666667</v>
+        <v>0.05310400000000001</v>
       </c>
       <c r="H18">
-        <v>0.326951</v>
+        <v>0.159312</v>
       </c>
       <c r="I18">
-        <v>0.05839396112379679</v>
+        <v>0.03393714751322075</v>
       </c>
       <c r="J18">
-        <v>0.05839396112379679</v>
+        <v>0.03393714751322075</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N18">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O18">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P18">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q18">
-        <v>51.32188358195012</v>
+        <v>28.33032388187734</v>
       </c>
       <c r="R18">
-        <v>461.896952237551</v>
+        <v>254.972914936896</v>
       </c>
       <c r="S18">
-        <v>0.02628615843246584</v>
+        <v>0.01858326166820101</v>
       </c>
       <c r="T18">
-        <v>0.02628615843246584</v>
+        <v>0.01858326166820101</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1089836666666667</v>
+        <v>0.05310400000000001</v>
       </c>
       <c r="H19">
-        <v>0.326951</v>
+        <v>0.159312</v>
       </c>
       <c r="I19">
-        <v>0.05839396112379679</v>
+        <v>0.03393714751322075</v>
       </c>
       <c r="J19">
-        <v>0.05839396112379679</v>
+        <v>0.03393714751322075</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N19">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O19">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P19">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q19">
-        <v>30.12656589638956</v>
+        <v>8.226034814064</v>
       </c>
       <c r="R19">
-        <v>271.1390930675061</v>
+        <v>74.034313326576</v>
       </c>
       <c r="S19">
-        <v>0.01543029267260045</v>
+        <v>0.005395863389308797</v>
       </c>
       <c r="T19">
-        <v>0.01543029267260045</v>
+        <v>0.005395863389308797</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.540984</v>
+        <v>0.218779</v>
       </c>
       <c r="H20">
-        <v>1.622952</v>
+        <v>0.6563369999999999</v>
       </c>
       <c r="I20">
-        <v>0.2898617713167669</v>
+        <v>0.1398149893754693</v>
       </c>
       <c r="J20">
-        <v>0.2898617713167668</v>
+        <v>0.1398149893754693</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N20">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O20">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P20">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q20">
-        <v>8.278311545175999</v>
+        <v>9.714603062259332</v>
       </c>
       <c r="R20">
-        <v>74.50480390658399</v>
+        <v>87.431427560334</v>
       </c>
       <c r="S20">
-        <v>0.004240004334259061</v>
+        <v>0.006372288981283228</v>
       </c>
       <c r="T20">
-        <v>0.00424000433425906</v>
+        <v>0.006372288981283228</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.540984</v>
+        <v>0.218779</v>
       </c>
       <c r="H21">
-        <v>1.622952</v>
+        <v>0.6563369999999999</v>
       </c>
       <c r="I21">
-        <v>0.2898617713167669</v>
+        <v>0.1398149893754693</v>
       </c>
       <c r="J21">
-        <v>0.2898617713167668</v>
+        <v>0.1398149893754693</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O21">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P21">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q21">
-        <v>0.1248726318</v>
+        <v>0.050499662675</v>
       </c>
       <c r="R21">
-        <v>1.1238536862</v>
+        <v>0.454496964075</v>
       </c>
       <c r="S21">
-        <v>6.3957547039996E-05</v>
+        <v>3.312522827335999E-05</v>
       </c>
       <c r="T21">
-        <v>6.395754703999598E-05</v>
+        <v>3.312522827335999E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.540984</v>
+        <v>0.218779</v>
       </c>
       <c r="H22">
-        <v>1.622952</v>
+        <v>0.6563369999999999</v>
       </c>
       <c r="I22">
-        <v>0.2898617713167669</v>
+        <v>0.1398149893754693</v>
       </c>
       <c r="J22">
-        <v>0.2898617713167668</v>
+        <v>0.1398149893754693</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N22">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O22">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P22">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q22">
-        <v>134.66148301752</v>
+        <v>50.88810909215366</v>
       </c>
       <c r="R22">
-        <v>1211.95334715768</v>
+        <v>457.992981829383</v>
       </c>
       <c r="S22">
-        <v>0.06897122300075248</v>
+        <v>0.03338002950486512</v>
       </c>
       <c r="T22">
-        <v>0.06897122300075247</v>
+        <v>0.03338002950486513</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.540984</v>
+        <v>0.218779</v>
       </c>
       <c r="H23">
-        <v>1.622952</v>
+        <v>0.6563369999999999</v>
       </c>
       <c r="I23">
-        <v>0.2898617713167669</v>
+        <v>0.1398149893754693</v>
       </c>
       <c r="J23">
-        <v>0.2898617713167668</v>
+        <v>0.1398149893754693</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N23">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O23">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P23">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q23">
-        <v>18.568201766432</v>
+        <v>1.890131981782</v>
       </c>
       <c r="R23">
-        <v>167.113815897888</v>
+        <v>17.011187836038</v>
       </c>
       <c r="S23">
-        <v>0.009510303585390687</v>
+        <v>0.001239831120580986</v>
       </c>
       <c r="T23">
-        <v>0.009510303585390685</v>
+        <v>0.001239831120580986</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.540984</v>
+        <v>0.218779</v>
       </c>
       <c r="H24">
-        <v>1.622952</v>
+        <v>0.6563369999999999</v>
       </c>
       <c r="I24">
-        <v>0.2898617713167669</v>
+        <v>0.1398149893754693</v>
       </c>
       <c r="J24">
-        <v>0.2898617713167668</v>
+        <v>0.1398149893754693</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N24">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O24">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P24">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q24">
-        <v>254.756687097128</v>
+        <v>116.7158769311773</v>
       </c>
       <c r="R24">
-        <v>2292.810183874152</v>
+        <v>1050.442892380596</v>
       </c>
       <c r="S24">
-        <v>0.1304818563035051</v>
+        <v>0.07655972063323568</v>
       </c>
       <c r="T24">
-        <v>0.1304818563035051</v>
+        <v>0.0765597206332357</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.540984</v>
+        <v>0.218779</v>
       </c>
       <c r="H25">
-        <v>1.622952</v>
+        <v>0.6563369999999999</v>
       </c>
       <c r="I25">
-        <v>0.2898617713167669</v>
+        <v>0.1398149893754693</v>
       </c>
       <c r="J25">
-        <v>0.2898617713167668</v>
+        <v>0.1398149893754693</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N25">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O25">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P25">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q25">
-        <v>149.545254104368</v>
+        <v>33.88979494173899</v>
       </c>
       <c r="R25">
-        <v>1345.907286939312</v>
+        <v>305.0081544756509</v>
       </c>
       <c r="S25">
-        <v>0.07659442654581954</v>
+        <v>0.02222999390723088</v>
       </c>
       <c r="T25">
-        <v>0.07659442654581954</v>
+        <v>0.02222999390723089</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.162402</v>
+        <v>0.2103056666666666</v>
       </c>
       <c r="H26">
-        <v>0.487206</v>
+        <v>0.630917</v>
       </c>
       <c r="I26">
-        <v>0.0870157553372846</v>
+        <v>0.1343999403535119</v>
       </c>
       <c r="J26">
-        <v>0.08701575533728459</v>
+        <v>0.1343999403535119</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N26">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O26">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P26">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q26">
-        <v>2.485127751578</v>
+        <v>9.338355479321555</v>
       </c>
       <c r="R26">
-        <v>22.366149764202</v>
+        <v>84.045199313894</v>
       </c>
       <c r="S26">
-        <v>0.001272838353615523</v>
+        <v>0.006125489568932226</v>
       </c>
       <c r="T26">
-        <v>0.001272838353615522</v>
+        <v>0.006125489568932226</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.162402</v>
+        <v>0.2103056666666666</v>
       </c>
       <c r="H27">
-        <v>0.487206</v>
+        <v>0.630917</v>
       </c>
       <c r="I27">
-        <v>0.0870157553372846</v>
+        <v>0.1343999403535119</v>
       </c>
       <c r="J27">
-        <v>0.08701575533728459</v>
+        <v>0.1343999403535119</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O27">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P27">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q27">
-        <v>0.03748644165000001</v>
+        <v>0.04854380550833334</v>
       </c>
       <c r="R27">
-        <v>0.33737797485</v>
+        <v>0.436894249575</v>
       </c>
       <c r="S27">
-        <v>1.919989048546617E-05</v>
+        <v>3.184228475088783E-05</v>
       </c>
       <c r="T27">
-        <v>1.919989048546616E-05</v>
+        <v>3.184228475088783E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.162402</v>
+        <v>0.2103056666666666</v>
       </c>
       <c r="H28">
-        <v>0.487206</v>
+        <v>0.630917</v>
       </c>
       <c r="I28">
-        <v>0.0870157553372846</v>
+        <v>0.1343999403535119</v>
       </c>
       <c r="J28">
-        <v>0.08701575533728459</v>
+        <v>0.1343999403535119</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N28">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O28">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P28">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q28">
-        <v>40.42502951106</v>
+        <v>48.91720735551144</v>
       </c>
       <c r="R28">
-        <v>363.82526559954</v>
+        <v>440.254866199603</v>
       </c>
       <c r="S28">
-        <v>0.02070498306376566</v>
+        <v>0.03208721750430189</v>
       </c>
       <c r="T28">
-        <v>0.02070498306376566</v>
+        <v>0.03208721750430189</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.162402</v>
+        <v>0.2103056666666666</v>
       </c>
       <c r="H29">
-        <v>0.487206</v>
+        <v>0.630917</v>
       </c>
       <c r="I29">
-        <v>0.0870157553372846</v>
+        <v>0.1343999403535119</v>
       </c>
       <c r="J29">
-        <v>0.08701575533728459</v>
+        <v>0.1343999403535119</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N29">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O29">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P29">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q29">
-        <v>5.574126227896</v>
+        <v>1.816926974328666</v>
       </c>
       <c r="R29">
-        <v>50.167136051064</v>
+        <v>16.352342768958</v>
       </c>
       <c r="S29">
-        <v>0.002854968581094114</v>
+        <v>0.001191812332846684</v>
       </c>
       <c r="T29">
-        <v>0.002854968581094114</v>
+        <v>0.001191812332846684</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.162402</v>
+        <v>0.2103056666666666</v>
       </c>
       <c r="H30">
-        <v>0.487206</v>
+        <v>0.630917</v>
       </c>
       <c r="I30">
-        <v>0.0870157553372846</v>
+        <v>0.1343999403535119</v>
       </c>
       <c r="J30">
-        <v>0.08701575533728459</v>
+        <v>0.1343999403535119</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N30">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O30">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P30">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q30">
-        <v>76.47729969453401</v>
+        <v>112.1954589270262</v>
       </c>
       <c r="R30">
-        <v>688.295697250806</v>
+        <v>1009.759130343236</v>
       </c>
       <c r="S30">
-        <v>0.03917031636314906</v>
+        <v>0.07359455472228316</v>
       </c>
       <c r="T30">
-        <v>0.03917031636314906</v>
+        <v>0.07359455472228317</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.162402</v>
+        <v>0.2103056666666666</v>
       </c>
       <c r="H31">
-        <v>0.487206</v>
+        <v>0.630917</v>
       </c>
       <c r="I31">
-        <v>0.0870157553372846</v>
+        <v>0.1343999403535119</v>
       </c>
       <c r="J31">
-        <v>0.08701575533728459</v>
+        <v>0.1343999403535119</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N31">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O31">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P31">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q31">
-        <v>44.89309916200401</v>
+        <v>32.57723967299899</v>
       </c>
       <c r="R31">
-        <v>404.0378924580361</v>
+        <v>293.195157056991</v>
       </c>
       <c r="S31">
-        <v>0.02299344908517476</v>
+        <v>0.02136902394039706</v>
       </c>
       <c r="T31">
-        <v>0.02299344908517476</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.2778943333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.833683</v>
-      </c>
-      <c r="I32">
-        <v>0.1488970906697648</v>
-      </c>
-      <c r="J32">
-        <v>0.1488970906697648</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>15.30232233333333</v>
-      </c>
-      <c r="N32">
-        <v>45.90696699999999</v>
-      </c>
-      <c r="O32">
-        <v>0.01462767689232637</v>
-      </c>
-      <c r="P32">
-        <v>0.01462767689232637</v>
-      </c>
-      <c r="Q32">
-        <v>4.252428663273443</v>
-      </c>
-      <c r="R32">
-        <v>38.271857969461</v>
-      </c>
-      <c r="S32">
-        <v>0.002178018532524742</v>
-      </c>
-      <c r="T32">
-        <v>0.002178018532524742</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.2778943333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.833683</v>
-      </c>
-      <c r="I33">
-        <v>0.1488970906697648</v>
-      </c>
-      <c r="J33">
-        <v>0.1488970906697648</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.230825</v>
-      </c>
-      <c r="N33">
-        <v>0.6924750000000001</v>
-      </c>
-      <c r="O33">
-        <v>0.0002206484378724847</v>
-      </c>
-      <c r="P33">
-        <v>0.0002206484378724847</v>
-      </c>
-      <c r="Q33">
-        <v>0.06414495949166667</v>
-      </c>
-      <c r="R33">
-        <v>0.577304635425</v>
-      </c>
-      <c r="S33">
-        <v>3.285391046004131E-05</v>
-      </c>
-      <c r="T33">
-        <v>3.285391046004131E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.2778943333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.833683</v>
-      </c>
-      <c r="I34">
-        <v>0.1488970906697648</v>
-      </c>
-      <c r="J34">
-        <v>0.1488970906697648</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>248.91953</v>
-      </c>
-      <c r="N34">
-        <v>746.7585899999999</v>
-      </c>
-      <c r="O34">
-        <v>0.2379452201904173</v>
-      </c>
-      <c r="P34">
-        <v>0.2379452201904173</v>
-      </c>
-      <c r="Q34">
-        <v>69.17332684299666</v>
-      </c>
-      <c r="R34">
-        <v>622.5599415869699</v>
-      </c>
-      <c r="S34">
-        <v>0.03542935102512971</v>
-      </c>
-      <c r="T34">
-        <v>0.03542935102512971</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.2778943333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.833683</v>
-      </c>
-      <c r="I35">
-        <v>0.1488970906697648</v>
-      </c>
-      <c r="J35">
-        <v>0.1488970906697648</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>34.32301466666667</v>
-      </c>
-      <c r="N35">
-        <v>102.969044</v>
-      </c>
-      <c r="O35">
-        <v>0.03280978910115619</v>
-      </c>
-      <c r="P35">
-        <v>0.03280978910115619</v>
-      </c>
-      <c r="Q35">
-        <v>9.538171278783555</v>
-      </c>
-      <c r="R35">
-        <v>85.84354150905199</v>
-      </c>
-      <c r="S35">
-        <v>0.004885282142650714</v>
-      </c>
-      <c r="T35">
-        <v>0.004885282142650714</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.2778943333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.833683</v>
-      </c>
-      <c r="I36">
-        <v>0.1488970906697648</v>
-      </c>
-      <c r="J36">
-        <v>0.1488970906697648</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>470.9135336666666</v>
-      </c>
-      <c r="N36">
-        <v>1412.740601</v>
-      </c>
-      <c r="O36">
-        <v>0.4501520007649158</v>
-      </c>
-      <c r="P36">
-        <v>0.4501520007649158</v>
-      </c>
-      <c r="Q36">
-        <v>130.8642024959425</v>
-      </c>
-      <c r="R36">
-        <v>1177.777822463483</v>
-      </c>
-      <c r="S36">
-        <v>0.06702632327306969</v>
-      </c>
-      <c r="T36">
-        <v>0.0670263232730697</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.2778943333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.833683</v>
-      </c>
-      <c r="I37">
-        <v>0.1488970906697648</v>
-      </c>
-      <c r="J37">
-        <v>0.1488970906697648</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>276.4319353333333</v>
-      </c>
-      <c r="N37">
-        <v>829.2958060000001</v>
-      </c>
-      <c r="O37">
-        <v>0.2642446646133118</v>
-      </c>
-      <c r="P37">
-        <v>0.2642446646133118</v>
-      </c>
-      <c r="Q37">
-        <v>76.81886838149977</v>
-      </c>
-      <c r="R37">
-        <v>691.369815433498</v>
-      </c>
-      <c r="S37">
-        <v>0.03934526178592986</v>
-      </c>
-      <c r="T37">
-        <v>0.03934526178592988</v>
+        <v>0.02136902394039707</v>
       </c>
     </row>
   </sheetData>
